--- a/biology/Médecine/Muscle_petit_psoas/Muscle_petit_psoas.xlsx
+++ b/biology/Médecine/Muscle_petit_psoas/Muscle_petit_psoas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit psoas est un muscle inconstant du membre pelvien ou inférieur présent dans 50 à 60 % des cas.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit psoas est muscle fusiforme grêle qui se situe devant le muscle grand psoas.
 </t>
@@ -542,7 +556,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit psoas se fixe sur la face latérale du corps de la douzième vertèbre thoracique (T12) et de la première vertèbre lombaire (L1) ainsi que sur le disque intervertébral entre ces deux vertèbres.
 </t>
@@ -573,7 +589,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit psoas chemine sur la face ventrale du muscle grand psoas, avec une direction légèrement médiale. Il ne franchit pas le ligament inguinal et reste donc dans le bassin.
 </t>
@@ -604,7 +622,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit psoas se termine sur la ligne arquée de l'ilion sur la face dorsale dorsal de l'éminence iliopubienne.
 </t>
@@ -635,7 +655,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit psoas est innervé par le rameau antérieur du premier nerf lombaire.
 </t>
@@ -666,7 +688,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit psoas est fléchisseur accessoire du bassin (très peu puissant), il sert surtout à maintenir le grand psoas contre les structures squelettiques postérieures, l'empêchant ainsi de prendre la corde de l'arc.
 </t>
@@ -697,7 +721,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit psoas est un point de repère pour le muscle grand psoas.
 </t>
@@ -728,7 +754,9 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit psoas est présent chez d'autres mammifères, comme les chevaux. Chez les chevaux, il peut être palpé par toucher rectal pour rechercher les causes des maux de dos.
 </t>
